--- a/PythonResources/RunCases/seasonal_cop.xlsx
+++ b/PythonResources/RunCases/seasonal_cop.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ETS_All_futu_monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="ETS_All_futu_overall" sheetId="2" r:id="rId2"/>
+    <sheet name="ETS_1_monthly" sheetId="1" r:id="rId1"/>
+    <sheet name="ETS_1_overall" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>mode</t>
   </si>
@@ -32,16 +32,16 @@
     <t>COP_mon</t>
   </si>
   <si>
-    <t>TConEnt_avg</t>
-  </si>
-  <si>
-    <t>TConLvg_avg</t>
-  </si>
-  <si>
-    <t>TEvaEnt_avg</t>
-  </si>
-  <si>
-    <t>TEvaLvg_avg</t>
+    <t>TConEnt_avg|K</t>
+  </si>
+  <si>
+    <t>TConLvg_avg|K</t>
+  </si>
+  <si>
+    <t>TEvaEnt_avg|K</t>
+  </si>
+  <si>
+    <t>TEvaLvg_avg|K</t>
   </si>
   <si>
     <t>size</t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Sep</t>
-  </si>
-  <si>
-    <t>COP_overall</t>
   </si>
 </sst>
 </file>
@@ -546,58 +543,40 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8.260119438171387</v>
+        <v>7.942139933204688</v>
       </c>
       <c r="C4">
-        <v>302.2760314941406</v>
+        <v>304.3406020454739</v>
       </c>
       <c r="D4">
-        <v>305.134033203125</v>
+        <v>306.6870720904806</v>
       </c>
       <c r="E4">
-        <v>284.35693359375</v>
+        <v>284.7343922490659</v>
       </c>
       <c r="F4">
-        <v>281.893310546875</v>
+        <v>282.6839639414912</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="H4">
-        <v>4.236333847045898</v>
+        <v>4.577358531884396</v>
       </c>
       <c r="I4">
-        <v>320.2389526367188</v>
+        <v>313.0036964416504</v>
       </c>
       <c r="J4">
-        <v>326.02880859375</v>
+        <v>321.1116828918457</v>
       </c>
       <c r="K4">
-        <v>287.5927429199219</v>
+        <v>285.4331016540527</v>
       </c>
       <c r="L4">
-        <v>283.1658325195312</v>
+        <v>279.0946235656738</v>
       </c>
       <c r="M4">
-        <v>57</v>
-      </c>
-      <c r="N4">
-        <v>4.478368282318115</v>
-      </c>
-      <c r="O4">
-        <v>314.3594665527344</v>
-      </c>
-      <c r="P4">
-        <v>323.0051574707031</v>
-      </c>
-      <c r="Q4">
-        <v>287.0860595703125</v>
-      </c>
-      <c r="R4">
-        <v>280.3630065917969</v>
-      </c>
-      <c r="S4">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -605,40 +584,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.896656036376953</v>
+        <v>7.398032102648034</v>
       </c>
       <c r="C5">
-        <v>298.2617797851562</v>
+        <v>304.2139945194639</v>
       </c>
       <c r="D5">
-        <v>301.7628784179688</v>
+        <v>307.9323849382072</v>
       </c>
       <c r="E5">
-        <v>283.4510498046875</v>
+        <v>284.5940964271282</v>
       </c>
       <c r="F5">
-        <v>280.3036499023438</v>
+        <v>281.3789355047818</v>
       </c>
       <c r="G5">
-        <v>383</v>
-      </c>
-      <c r="N5">
-        <v>4.450370311737061</v>
-      </c>
-      <c r="O5">
-        <v>313.2778625488281</v>
-      </c>
-      <c r="P5">
-        <v>320.94970703125</v>
-      </c>
-      <c r="Q5">
-        <v>285.7809143066406</v>
-      </c>
-      <c r="R5">
-        <v>279.8245544433594</v>
-      </c>
-      <c r="S5">
-        <v>51</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -646,58 +607,40 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>3.860408067703247</v>
+        <v>7.178666154833804</v>
       </c>
       <c r="C6">
-        <v>326.66455078125</v>
+        <v>307.9058723449707</v>
       </c>
       <c r="D6">
-        <v>328.1434326171875</v>
+        <v>310.3665981292725</v>
       </c>
       <c r="E6">
-        <v>286.4805908203125</v>
+        <v>287.2326602935791</v>
       </c>
       <c r="F6">
-        <v>285.3741760253906</v>
+        <v>285.1433849334717</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>4.034897327423096</v>
+        <v>3.74583039211916</v>
       </c>
       <c r="I6">
-        <v>324.9825744628906</v>
+        <v>320.0131688271799</v>
       </c>
       <c r="J6">
-        <v>328.186279296875</v>
+        <v>327.6829728977655</v>
       </c>
       <c r="K6">
-        <v>287.8526306152344</v>
+        <v>285.7267282137307</v>
       </c>
       <c r="L6">
-        <v>285.4390869140625</v>
+        <v>280.1015549526419</v>
       </c>
       <c r="M6">
-        <v>330</v>
-      </c>
-      <c r="N6">
-        <v>3.974022150039673</v>
-      </c>
-      <c r="O6">
-        <v>323.5985717773438</v>
-      </c>
-      <c r="P6">
-        <v>328.9264526367188</v>
-      </c>
-      <c r="Q6">
-        <v>287.2709655761719</v>
-      </c>
-      <c r="R6">
-        <v>283.2819213867188</v>
-      </c>
-      <c r="S6">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -705,58 +648,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>8.42600154876709</v>
+        <v>6.603569373483853</v>
       </c>
       <c r="C7">
-        <v>304.0924377441406</v>
+        <v>309.4853820800781</v>
       </c>
       <c r="D7">
-        <v>308.1418762207031</v>
+        <v>311.9534301757812</v>
       </c>
       <c r="E7">
-        <v>288.3482971191406</v>
+        <v>287.2582528250558</v>
       </c>
       <c r="F7">
-        <v>285.3430480957031</v>
+        <v>285.1903337751116</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>4.04999303817749</v>
+        <v>3.732659283004948</v>
       </c>
       <c r="I7">
-        <v>324.7951354980469</v>
+        <v>319.9744325295473</v>
       </c>
       <c r="J7">
-        <v>328.2342529296875</v>
+        <v>327.3189947666266</v>
       </c>
       <c r="K7">
-        <v>287.8313293457031</v>
+        <v>285.6676283616286</v>
       </c>
       <c r="L7">
-        <v>285.2379150390625</v>
+        <v>280.2876970340044</v>
       </c>
       <c r="M7">
-        <v>262</v>
-      </c>
-      <c r="N7">
-        <v>4.516412734985352</v>
-      </c>
-      <c r="O7">
-        <v>318.0373229980469</v>
-      </c>
-      <c r="P7">
-        <v>324.0388793945312</v>
-      </c>
-      <c r="Q7">
-        <v>287.3914184570312</v>
-      </c>
-      <c r="R7">
-        <v>282.7146606445312</v>
-      </c>
-      <c r="S7">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -764,58 +689,40 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.355806827545166</v>
+        <v>7.28299541021487</v>
       </c>
       <c r="C8">
-        <v>312.8745727539062</v>
+        <v>307.3153228759766</v>
       </c>
       <c r="D8">
-        <v>315.5295104980469</v>
+        <v>309.5024375915527</v>
       </c>
       <c r="E8">
-        <v>287.4021911621094</v>
+        <v>286.9843673706055</v>
       </c>
       <c r="F8">
-        <v>285.3552551269531</v>
+        <v>285.1379203796387</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>3.907785415649414</v>
+        <v>3.577547628486173</v>
       </c>
       <c r="I8">
-        <v>326.3765258789062</v>
+        <v>321.2474238557635</v>
       </c>
       <c r="J8">
-        <v>329.2211608886719</v>
+        <v>329.1511213194649</v>
       </c>
       <c r="K8">
-        <v>287.89111328125</v>
+        <v>285.5648481261055</v>
       </c>
       <c r="L8">
-        <v>285.7737121582031</v>
+        <v>279.8674385502653</v>
       </c>
       <c r="M8">
-        <v>419</v>
-      </c>
-      <c r="N8">
-        <v>3.843437433242798</v>
-      </c>
-      <c r="O8">
-        <v>325.7818603515625</v>
-      </c>
-      <c r="P8">
-        <v>329.9517211914062</v>
-      </c>
-      <c r="Q8">
-        <v>287.5009155273438</v>
-      </c>
-      <c r="R8">
-        <v>284.416015625</v>
-      </c>
-      <c r="S8">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -823,40 +730,22 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>9.844882011413574</v>
+        <v>7.298668928368913</v>
       </c>
       <c r="C9">
-        <v>298.2466430664062</v>
+        <v>304.2545438228169</v>
       </c>
       <c r="D9">
-        <v>301.7916564941406</v>
+        <v>308.2897540899935</v>
       </c>
       <c r="E9">
-        <v>283.3627624511719</v>
+        <v>284.4730277775888</v>
       </c>
       <c r="F9">
-        <v>280.1774291992188</v>
+        <v>280.9909352159666</v>
       </c>
       <c r="G9">
-        <v>466</v>
-      </c>
-      <c r="N9">
-        <v>4.48253345489502</v>
-      </c>
-      <c r="O9">
-        <v>313.2931213378906</v>
-      </c>
-      <c r="P9">
-        <v>321.0192260742188</v>
-      </c>
-      <c r="Q9">
-        <v>285.809814453125</v>
-      </c>
-      <c r="R9">
-        <v>279.7855834960938</v>
-      </c>
-      <c r="S9">
-        <v>46</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -864,40 +753,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>9.678050994873047</v>
+        <v>7.495356099651389</v>
       </c>
       <c r="C10">
-        <v>298.4560852050781</v>
+        <v>304.2288258111299</v>
       </c>
       <c r="D10">
-        <v>301.8287353515625</v>
+        <v>307.6599715503294</v>
       </c>
       <c r="E10">
-        <v>283.3814697265625</v>
+        <v>284.5827935062238</v>
       </c>
       <c r="F10">
-        <v>280.3602294921875</v>
+        <v>281.6092470083664</v>
       </c>
       <c r="G10">
-        <v>288</v>
-      </c>
-      <c r="N10">
-        <v>4.517885208129883</v>
-      </c>
-      <c r="O10">
-        <v>313.8999328613281</v>
-      </c>
-      <c r="P10">
-        <v>321.6117553710938</v>
-      </c>
-      <c r="Q10">
-        <v>286.2642211914062</v>
-      </c>
-      <c r="R10">
-        <v>280.2542114257812</v>
-      </c>
-      <c r="S10">
-        <v>49</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -905,58 +776,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>5.938938140869141</v>
+        <v>7.398264981324923</v>
       </c>
       <c r="C11">
-        <v>311.09619140625</v>
+        <v>307.3450317382812</v>
       </c>
       <c r="D11">
-        <v>314.5847473144531</v>
+        <v>309.6193695068359</v>
       </c>
       <c r="E11">
-        <v>288.313720703125</v>
+        <v>287.0662892659505</v>
       </c>
       <c r="F11">
-        <v>285.3676147460938</v>
+        <v>285.1390635172526</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>4.128118991851807</v>
+        <v>3.903475843913796</v>
       </c>
       <c r="I11">
-        <v>323.3133850097656</v>
+        <v>318.3003565470378</v>
       </c>
       <c r="J11">
-        <v>327.3768920898438</v>
+        <v>325.9420687357585</v>
       </c>
       <c r="K11">
-        <v>287.7739562988281</v>
+        <v>285.6641527811686</v>
       </c>
       <c r="L11">
-        <v>284.6846618652344</v>
+        <v>279.9779968261719</v>
       </c>
       <c r="M11">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="N11">
-        <v>4.31077241897583</v>
+        <v>5.090269250889454</v>
       </c>
       <c r="O11">
-        <v>318.0433044433594</v>
+        <v>310.7619323730469</v>
       </c>
       <c r="P11">
-        <v>325.347900390625</v>
+        <v>319.2355041503906</v>
       </c>
       <c r="Q11">
-        <v>287.2880859375</v>
+        <v>287.1790466308594</v>
       </c>
       <c r="R11">
-        <v>281.6747131347656</v>
+        <v>280.3726196289062</v>
       </c>
       <c r="S11">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -964,58 +835,40 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>9.471240997314453</v>
+        <v>7.801118574982373</v>
       </c>
       <c r="C12">
-        <v>299.259033203125</v>
+        <v>304.2833319223055</v>
       </c>
       <c r="D12">
-        <v>302.3511657714844</v>
+        <v>307.0497262606057</v>
       </c>
       <c r="E12">
-        <v>283.4800415039062</v>
+        <v>284.9828753727738</v>
       </c>
       <c r="F12">
-        <v>280.7197265625</v>
+        <v>282.5713207285891</v>
       </c>
       <c r="G12">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="H12">
-        <v>4.460976600646973</v>
+        <v>4.941688848859474</v>
       </c>
       <c r="I12">
-        <v>317.3967895507812</v>
+        <v>310.209716796875</v>
       </c>
       <c r="J12">
-        <v>324.0598754882812</v>
+        <v>319.3551025390625</v>
       </c>
       <c r="K12">
-        <v>287.5252380371094</v>
+        <v>285.4824066162109</v>
       </c>
       <c r="L12">
-        <v>282.3504943847656</v>
+        <v>278.1847839355469</v>
       </c>
       <c r="M12">
-        <v>16</v>
-      </c>
-      <c r="N12">
-        <v>4.402478694915771</v>
-      </c>
-      <c r="O12">
-        <v>314.5096435546875</v>
-      </c>
-      <c r="P12">
-        <v>322.5653991699219</v>
-      </c>
-      <c r="Q12">
-        <v>286.3384094238281</v>
-      </c>
-      <c r="R12">
-        <v>280.1065979003906</v>
-      </c>
-      <c r="S12">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1023,58 +876,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>8.061860084533691</v>
+        <v>8.092016102171307</v>
       </c>
       <c r="C13">
-        <v>304.2957763671875</v>
+        <v>304.6202873461174</v>
       </c>
       <c r="D13">
-        <v>307.1539001464844</v>
+        <v>306.7063894560843</v>
       </c>
       <c r="E13">
-        <v>285.68017578125</v>
+        <v>285.4050653631037</v>
       </c>
       <c r="F13">
-        <v>283.223388671875</v>
+        <v>283.580605246804</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="H13">
-        <v>4.148767471313477</v>
+        <v>4.106205733069801</v>
       </c>
       <c r="I13">
-        <v>323.3537902832031</v>
+        <v>316.8456132676866</v>
       </c>
       <c r="J13">
-        <v>327.336181640625</v>
+        <v>325.5143636067708</v>
       </c>
       <c r="K13">
-        <v>287.7829284667969</v>
+        <v>286.3556230333116</v>
       </c>
       <c r="L13">
-        <v>284.7568969726562</v>
+        <v>279.7928449842665</v>
       </c>
       <c r="M13">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>4.417261600494385</v>
+        <v>4.390349511591186</v>
       </c>
       <c r="O13">
-        <v>315.5202026367188</v>
+        <v>315.6627960205078</v>
       </c>
       <c r="P13">
-        <v>323.0206604003906</v>
+        <v>325.0311431884766</v>
       </c>
       <c r="Q13">
-        <v>286.9206848144531</v>
+        <v>287.5096435546875</v>
       </c>
       <c r="R13">
-        <v>281.1089172363281</v>
+        <v>280.2787322998047</v>
       </c>
       <c r="S13">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1082,58 +935,40 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>9.090106010437012</v>
+        <v>8.022839834009444</v>
       </c>
       <c r="C14">
-        <v>301.1658935546875</v>
+        <v>304.4334746979095</v>
       </c>
       <c r="D14">
-        <v>304.1561889648438</v>
+        <v>306.843497140067</v>
       </c>
       <c r="E14">
-        <v>284.982421875</v>
+        <v>285.469965002039</v>
       </c>
       <c r="F14">
-        <v>282.3912048339844</v>
+        <v>283.362056857937</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="H14">
-        <v>4.179242134094238</v>
+        <v>4.621800966566261</v>
       </c>
       <c r="I14">
-        <v>321.4307556152344</v>
+        <v>313.1015973772322</v>
       </c>
       <c r="J14">
-        <v>326.4805603027344</v>
+        <v>322.3745727539062</v>
       </c>
       <c r="K14">
-        <v>287.6790771484375</v>
+        <v>286.5446428571428</v>
       </c>
       <c r="L14">
-        <v>283.8341064453125</v>
+        <v>279.2734069824219</v>
       </c>
       <c r="M14">
-        <v>59</v>
-      </c>
-      <c r="N14">
-        <v>4.413254737854004</v>
-      </c>
-      <c r="O14">
-        <v>315.5215759277344</v>
-      </c>
-      <c r="P14">
-        <v>323.3701782226562</v>
-      </c>
-      <c r="Q14">
-        <v>286.9038696289062</v>
-      </c>
-      <c r="R14">
-        <v>280.8279724121094</v>
-      </c>
-      <c r="S14">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1141,58 +976,40 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>10.03300762176514</v>
+        <v>7.631717645535224</v>
       </c>
       <c r="C15">
-        <v>298.2825622558594</v>
+        <v>304.2040211465122</v>
       </c>
       <c r="D15">
-        <v>301.5066528320312</v>
+        <v>307.3775184956772</v>
       </c>
       <c r="E15">
-        <v>283.3998107910156</v>
+        <v>284.7950769216528</v>
       </c>
       <c r="F15">
-        <v>280.4967041015625</v>
+        <v>282.0382810475137</v>
       </c>
       <c r="G15">
-        <v>201</v>
+        <v>422</v>
       </c>
       <c r="H15">
-        <v>4.475663185119629</v>
+        <v>7.728417475906985</v>
       </c>
       <c r="I15">
-        <v>318.2002868652344</v>
+        <v>307.4984741210937</v>
       </c>
       <c r="J15">
-        <v>324.2491149902344</v>
+        <v>310.1500244140625</v>
       </c>
       <c r="K15">
-        <v>287.5753479003906</v>
+        <v>289.1929016113281</v>
       </c>
       <c r="L15">
-        <v>282.8722534179688</v>
+        <v>286.8865051269531</v>
       </c>
       <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>4.472246170043945</v>
-      </c>
-      <c r="O15">
-        <v>314.6073913574219</v>
-      </c>
-      <c r="P15">
-        <v>321.8884582519531</v>
-      </c>
-      <c r="Q15">
-        <v>286.3085327148438</v>
-      </c>
-      <c r="R15">
-        <v>280.6460876464844</v>
-      </c>
-      <c r="S15">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -1241,22 +1058,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.420657157897949</v>
+        <v>4.697357491249054</v>
       </c>
       <c r="C2">
-        <v>286.5152587890625</v>
+        <v>287.3443450927734</v>
       </c>
       <c r="D2">
-        <v>280.7235717773438</v>
+        <v>280.3256759643555</v>
       </c>
       <c r="E2">
-        <v>315.3816528320312</v>
+        <v>313.2123641967773</v>
       </c>
       <c r="F2">
-        <v>322.856201171875</v>
+        <v>322.1333236694336</v>
       </c>
       <c r="G2">
-        <v>422</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1264,22 +1081,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.760165214538574</v>
+        <v>7.516163328096475</v>
       </c>
       <c r="C3">
-        <v>283.4704284667969</v>
+        <v>284.7888379355338</v>
       </c>
       <c r="D3">
-        <v>280.4186401367188</v>
+        <v>281.9301049682209</v>
       </c>
       <c r="E3">
-        <v>298.5841674804688</v>
+        <v>304.355131423593</v>
       </c>
       <c r="F3">
-        <v>301.988037109375</v>
+        <v>307.6541029710036</v>
       </c>
       <c r="G3">
-        <v>1482</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1287,22 +1104,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.06164026260376</v>
+        <v>3.820315707019815</v>
       </c>
       <c r="C4">
-        <v>287.8225708007812</v>
+        <v>285.753366388662</v>
       </c>
       <c r="D4">
-        <v>285.1519165039062</v>
+        <v>279.9777671371959</v>
       </c>
       <c r="E4">
-        <v>324.5692749023438</v>
+        <v>319.1527301778721</v>
       </c>
       <c r="F4">
-        <v>328.1075744628906</v>
+        <v>326.9720522018164</v>
       </c>
       <c r="G4">
-        <v>1459</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/PythonResources/RunCases/seasonal_cop.xlsx
+++ b/PythonResources/RunCases/seasonal_cop.xlsx
@@ -8,14 +8,23 @@
   </bookViews>
   <sheets>
     <sheet name="ETS_1_monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="ETS_1_overall" sheetId="2" r:id="rId2"/>
+    <sheet name="ETS_1_annual" sheetId="2" r:id="rId2"/>
+    <sheet name="ETS_2_monthly" sheetId="3" r:id="rId3"/>
+    <sheet name="ETS_2_annual" sheetId="4" r:id="rId4"/>
+    <sheet name="ETS_3_monthly" sheetId="5" r:id="rId5"/>
+    <sheet name="ETS_3_annual" sheetId="6" r:id="rId6"/>
+    <sheet name="ETS_4_monthly" sheetId="7" r:id="rId7"/>
+    <sheet name="ETS_4_annual" sheetId="8" r:id="rId8"/>
+    <sheet name="ETS_5_monthly" sheetId="9" r:id="rId9"/>
+    <sheet name="ETS_5_annual" sheetId="10" r:id="rId10"/>
+    <sheet name="remarks" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="31">
   <si>
     <t>mode</t>
   </si>
@@ -32,19 +41,19 @@
     <t>COP_mon</t>
   </si>
   <si>
-    <t>TConEnt_avg|K</t>
+    <t>Duration|h</t>
   </si>
   <si>
-    <t>TConLvg_avg|K</t>
+    <t>TConEnt_avg|C</t>
   </si>
   <si>
-    <t>TEvaEnt_avg|K</t>
+    <t>TConLvg_avg|C</t>
   </si>
   <si>
-    <t>TEvaLvg_avg|K</t>
+    <t>TEvaEnt_avg|C</t>
   </si>
   <si>
-    <t>size</t>
+    <t>TEvaLvg_avg|C</t>
   </si>
   <si>
     <t>month</t>
@@ -84,6 +93,30 @@
   </si>
   <si>
     <t>Sep</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Weather scenario</t>
+  </si>
+  <si>
+    <t>Result file at commit</t>
+  </si>
+  <si>
+    <t>This file generated at commit</t>
+  </si>
+  <si>
+    <t>ThermalGridJBA.Networks.Validation.DetailedPlantFiveHubs</t>
+  </si>
+  <si>
+    <t>fTMY</t>
+  </si>
+  <si>
+    <t>343b6a5a47399dbee9441f1aaf96fb83d38b8aa6</t>
+  </si>
+  <si>
+    <t>907d69fab8573d4d5c49988070882caffc052933</t>
   </si>
 </sst>
 </file>
@@ -546,37 +579,37 @@
         <v>7.942139933204688</v>
       </c>
       <c r="C4">
-        <v>304.3406020454739</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>306.6870720904806</v>
+        <v>31.1906020454739</v>
       </c>
       <c r="E4">
-        <v>284.7343922490659</v>
+        <v>33.53707209048065</v>
       </c>
       <c r="F4">
-        <v>282.6839639414912</v>
+        <v>11.5843922490659</v>
       </c>
       <c r="G4">
-        <v>184</v>
+        <v>9.533963941491209</v>
       </c>
       <c r="H4">
         <v>4.577358531884396</v>
       </c>
       <c r="I4">
-        <v>313.0036964416504</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>321.1116828918457</v>
+        <v>39.85369644165041</v>
       </c>
       <c r="K4">
-        <v>285.4331016540527</v>
+        <v>47.96168289184573</v>
       </c>
       <c r="L4">
-        <v>279.0946235656738</v>
+        <v>12.28310165405276</v>
       </c>
       <c r="M4">
-        <v>16</v>
+        <v>5.944623565673851</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -587,19 +620,19 @@
         <v>7.398032102648034</v>
       </c>
       <c r="C5">
-        <v>304.2139945194639</v>
+        <v>580</v>
       </c>
       <c r="D5">
-        <v>307.9323849382072</v>
+        <v>31.0639945194639</v>
       </c>
       <c r="E5">
-        <v>284.5940964271282</v>
+        <v>34.7823849382072</v>
       </c>
       <c r="F5">
-        <v>281.3789355047818</v>
+        <v>11.44409642712827</v>
       </c>
       <c r="G5">
-        <v>580</v>
+        <v>8.228935504781816</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -610,37 +643,37 @@
         <v>7.178666154833804</v>
       </c>
       <c r="C6">
-        <v>307.9058723449707</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>310.3665981292725</v>
+        <v>34.75587234497073</v>
       </c>
       <c r="E6">
-        <v>287.2326602935791</v>
+        <v>37.21659812927248</v>
       </c>
       <c r="F6">
-        <v>285.1433849334717</v>
+        <v>14.08266029357912</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>11.9933849334717</v>
       </c>
       <c r="H6">
         <v>3.74583039211916</v>
       </c>
       <c r="I6">
-        <v>320.0131688271799</v>
+        <v>93</v>
       </c>
       <c r="J6">
-        <v>327.6829728977655</v>
+        <v>46.86316882717995</v>
       </c>
       <c r="K6">
-        <v>285.7267282137307</v>
+        <v>54.53297289776549</v>
       </c>
       <c r="L6">
-        <v>280.1015549526419</v>
+        <v>12.57672821373069</v>
       </c>
       <c r="M6">
-        <v>93</v>
+        <v>6.95155495264197</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -651,37 +684,37 @@
         <v>6.603569373483853</v>
       </c>
       <c r="C7">
-        <v>309.4853820800781</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>311.9534301757812</v>
+        <v>36.33538208007815</v>
       </c>
       <c r="E7">
-        <v>287.2582528250558</v>
+        <v>38.80343017578127</v>
       </c>
       <c r="F7">
-        <v>285.1903337751116</v>
+        <v>14.10825282505584</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>12.04033377511161</v>
       </c>
       <c r="H7">
         <v>3.732659283004948</v>
       </c>
       <c r="I7">
-        <v>319.9744325295473</v>
+        <v>78</v>
       </c>
       <c r="J7">
-        <v>327.3189947666266</v>
+        <v>46.82443252954732</v>
       </c>
       <c r="K7">
-        <v>285.6676283616286</v>
+        <v>54.16899476662661</v>
       </c>
       <c r="L7">
-        <v>280.2876970340044</v>
+        <v>12.51762836162862</v>
       </c>
       <c r="M7">
-        <v>78</v>
+        <v>7.137697034004418</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -692,37 +725,37 @@
         <v>7.28299541021487</v>
       </c>
       <c r="C8">
-        <v>307.3153228759766</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>309.5024375915527</v>
+        <v>34.16532287597659</v>
       </c>
       <c r="E8">
-        <v>286.9843673706055</v>
+        <v>36.35243759155276</v>
       </c>
       <c r="F8">
-        <v>285.1379203796387</v>
+        <v>13.83436737060549</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>11.98792037963869</v>
       </c>
       <c r="H8">
         <v>3.577547628486173</v>
       </c>
       <c r="I8">
-        <v>321.2474238557635</v>
+        <v>106</v>
       </c>
       <c r="J8">
-        <v>329.1511213194649</v>
+        <v>48.09742385576357</v>
       </c>
       <c r="K8">
-        <v>285.5648481261055</v>
+        <v>56.00112131946491</v>
       </c>
       <c r="L8">
-        <v>279.8674385502653</v>
+        <v>12.41484812610554</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>6.717438550265342</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -733,19 +766,19 @@
         <v>7.298668928368913</v>
       </c>
       <c r="C9">
-        <v>304.2545438228169</v>
+        <v>574</v>
       </c>
       <c r="D9">
-        <v>308.2897540899935</v>
+        <v>31.10454382281688</v>
       </c>
       <c r="E9">
-        <v>284.4730277775888</v>
+        <v>35.13975408999352</v>
       </c>
       <c r="F9">
-        <v>280.9909352159666</v>
+        <v>11.32302777758878</v>
       </c>
       <c r="G9">
-        <v>574</v>
+        <v>7.840935215966624</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -756,19 +789,19 @@
         <v>7.495356099651389</v>
       </c>
       <c r="C10">
-        <v>304.2288258111299</v>
+        <v>536</v>
       </c>
       <c r="D10">
-        <v>307.6599715503294</v>
+        <v>31.07882581112995</v>
       </c>
       <c r="E10">
-        <v>284.5827935062238</v>
+        <v>34.50997155032945</v>
       </c>
       <c r="F10">
-        <v>281.6092470083664</v>
+        <v>11.43279350622379</v>
       </c>
       <c r="G10">
-        <v>536</v>
+        <v>8.45924700836639</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -779,55 +812,55 @@
         <v>7.398264981324923</v>
       </c>
       <c r="C11">
-        <v>307.3450317382812</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>309.6193695068359</v>
+        <v>34.19503173828127</v>
       </c>
       <c r="E11">
-        <v>287.0662892659505</v>
+        <v>36.46936950683596</v>
       </c>
       <c r="F11">
-        <v>285.1390635172526</v>
+        <v>13.91628926595052</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>11.98906351725265</v>
       </c>
       <c r="H11">
         <v>3.903475843913796</v>
       </c>
       <c r="I11">
-        <v>318.3003565470378</v>
+        <v>48</v>
       </c>
       <c r="J11">
-        <v>325.9420687357585</v>
+        <v>45.1503565470378</v>
       </c>
       <c r="K11">
-        <v>285.6641527811686</v>
+        <v>52.79206873575851</v>
       </c>
       <c r="L11">
-        <v>279.9779968261719</v>
+        <v>12.51415278116866</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>6.827996826171898</v>
       </c>
       <c r="N11">
         <v>5.090269250889454</v>
       </c>
       <c r="O11">
-        <v>310.7619323730469</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>319.2355041503906</v>
+        <v>37.6119323730469</v>
       </c>
       <c r="Q11">
-        <v>287.1790466308594</v>
+        <v>46.08550415039065</v>
       </c>
       <c r="R11">
-        <v>280.3726196289062</v>
+        <v>14.0290466308594</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>7.222619628906273</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -838,37 +871,37 @@
         <v>7.801118574982373</v>
       </c>
       <c r="C12">
-        <v>304.2833319223055</v>
+        <v>372</v>
       </c>
       <c r="D12">
-        <v>307.0497262606057</v>
+        <v>31.13333192230556</v>
       </c>
       <c r="E12">
-        <v>284.9828753727738</v>
+        <v>33.89972626060569</v>
       </c>
       <c r="F12">
-        <v>282.5713207285891</v>
+        <v>11.83287537277386</v>
       </c>
       <c r="G12">
-        <v>372</v>
+        <v>9.421320728589137</v>
       </c>
       <c r="H12">
         <v>4.941688848859474</v>
       </c>
       <c r="I12">
-        <v>310.209716796875</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>319.3551025390625</v>
+        <v>37.05971679687502</v>
       </c>
       <c r="K12">
-        <v>285.4824066162109</v>
+        <v>46.20510253906252</v>
       </c>
       <c r="L12">
-        <v>278.1847839355469</v>
+        <v>12.3324066162109</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>5.034783935546898</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -879,55 +912,55 @@
         <v>8.092016102171307</v>
       </c>
       <c r="C13">
-        <v>304.6202873461174</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>306.7063894560843</v>
+        <v>31.47028734611746</v>
       </c>
       <c r="E13">
-        <v>285.4050653631037</v>
+        <v>33.55638945608428</v>
       </c>
       <c r="F13">
-        <v>283.580605246804</v>
+        <v>12.25506536310371</v>
       </c>
       <c r="G13">
-        <v>66</v>
+        <v>10.43060524680402</v>
       </c>
       <c r="H13">
         <v>4.106205733069801</v>
       </c>
       <c r="I13">
-        <v>316.8456132676866</v>
+        <v>36</v>
       </c>
       <c r="J13">
-        <v>325.5143636067708</v>
+        <v>43.69561326768667</v>
       </c>
       <c r="K13">
-        <v>286.3556230333116</v>
+        <v>52.36436360677084</v>
       </c>
       <c r="L13">
-        <v>279.7928449842665</v>
+        <v>13.20562303331167</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>6.642844984266503</v>
       </c>
       <c r="N13">
         <v>4.390349511591186</v>
       </c>
       <c r="O13">
-        <v>315.6627960205078</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>325.0311431884766</v>
+        <v>42.51279602050784</v>
       </c>
       <c r="Q13">
-        <v>287.5096435546875</v>
+        <v>51.88114318847659</v>
       </c>
       <c r="R13">
-        <v>280.2787322998047</v>
+        <v>14.35964355468752</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>7.12873229980471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -938,37 +971,37 @@
         <v>8.022839834009444</v>
       </c>
       <c r="C14">
-        <v>304.4334746979095</v>
+        <v>182</v>
       </c>
       <c r="D14">
-        <v>306.843497140067</v>
+        <v>31.28347469790953</v>
       </c>
       <c r="E14">
-        <v>285.469965002039</v>
+        <v>33.693497140067</v>
       </c>
       <c r="F14">
-        <v>283.362056857937</v>
+        <v>12.319965002039</v>
       </c>
       <c r="G14">
-        <v>182</v>
+        <v>10.212056857937</v>
       </c>
       <c r="H14">
         <v>4.621800966566261</v>
       </c>
       <c r="I14">
-        <v>313.1015973772322</v>
+        <v>14</v>
       </c>
       <c r="J14">
-        <v>322.3745727539062</v>
+        <v>39.95159737723219</v>
       </c>
       <c r="K14">
-        <v>286.5446428571428</v>
+        <v>49.22457275390627</v>
       </c>
       <c r="L14">
-        <v>279.2734069824219</v>
+        <v>13.39464285714286</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>6.123406982421898</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -979,37 +1012,37 @@
         <v>7.631717645535224</v>
       </c>
       <c r="C15">
-        <v>304.2040211465122</v>
+        <v>422</v>
       </c>
       <c r="D15">
-        <v>307.3775184956772</v>
+        <v>31.05402114651218</v>
       </c>
       <c r="E15">
-        <v>284.7950769216528</v>
+        <v>34.2275184956772</v>
       </c>
       <c r="F15">
-        <v>282.0382810475137</v>
+        <v>11.64507692165284</v>
       </c>
       <c r="G15">
-        <v>422</v>
+        <v>8.888281047513715</v>
       </c>
       <c r="H15">
         <v>7.728417475906985</v>
       </c>
       <c r="I15">
-        <v>307.4984741210937</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>310.1500244140625</v>
+        <v>34.34847412109372</v>
       </c>
       <c r="K15">
-        <v>289.1929016113281</v>
+        <v>37.00002441406252</v>
       </c>
       <c r="L15">
-        <v>286.8865051269531</v>
+        <v>16.04290161132809</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>13.73650512695315</v>
       </c>
     </row>
   </sheetData>
@@ -1018,6 +1051,164 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4.504986478590452</v>
+      </c>
+      <c r="C2">
+        <v>9.575836581871158</v>
+      </c>
+      <c r="D2">
+        <v>6.460537169409577</v>
+      </c>
+      <c r="E2">
+        <v>41.19041307793293</v>
+      </c>
+      <c r="F2">
+        <v>45.18234743212093</v>
+      </c>
+      <c r="G2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.458915436126593</v>
+      </c>
+      <c r="C3">
+        <v>9.749627323377013</v>
+      </c>
+      <c r="D3">
+        <v>7.632743455170839</v>
+      </c>
+      <c r="E3">
+        <v>31.32091996945269</v>
+      </c>
+      <c r="F3">
+        <v>33.76790073830813</v>
+      </c>
+      <c r="G3">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.934840328877518</v>
+      </c>
+      <c r="C4">
+        <v>12.51213567416562</v>
+      </c>
+      <c r="D4">
+        <v>6.391935568494375</v>
+      </c>
+      <c r="E4">
+        <v>45.04757412937244</v>
+      </c>
+      <c r="F4">
+        <v>53.24333437431454</v>
+      </c>
+      <c r="G4">
+        <v>926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1038,19 +1229,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1061,16 +1252,16 @@
         <v>4.697357491249054</v>
       </c>
       <c r="C2">
-        <v>287.3443450927734</v>
+        <v>14.19434509277346</v>
       </c>
       <c r="D2">
-        <v>280.3256759643555</v>
+        <v>7.175675964355491</v>
       </c>
       <c r="E2">
-        <v>313.2123641967773</v>
+        <v>40.06236419677737</v>
       </c>
       <c r="F2">
-        <v>322.1333236694336</v>
+        <v>48.98332366943362</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -1084,16 +1275,16 @@
         <v>7.516163328096475</v>
       </c>
       <c r="C3">
-        <v>284.7888379355338</v>
+        <v>11.63883793553384</v>
       </c>
       <c r="D3">
-        <v>281.9301049682209</v>
+        <v>8.78010496822094</v>
       </c>
       <c r="E3">
-        <v>304.355131423593</v>
+        <v>31.205131423593</v>
       </c>
       <c r="F3">
-        <v>307.6541029710036</v>
+        <v>34.50410297100365</v>
       </c>
       <c r="G3">
         <v>2990</v>
@@ -1107,16 +1298,16 @@
         <v>3.820315707019815</v>
       </c>
       <c r="C4">
-        <v>285.753366388662</v>
+        <v>12.60336638866204</v>
       </c>
       <c r="D4">
-        <v>279.9777671371959</v>
+        <v>6.827767137195963</v>
       </c>
       <c r="E4">
-        <v>319.1527301778721</v>
+        <v>46.00273017787214</v>
       </c>
       <c r="F4">
-        <v>326.9720522018164</v>
+        <v>53.8220522018164</v>
       </c>
       <c r="G4">
         <v>397</v>
@@ -1125,4 +1316,3479 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>7.49028157595106</v>
+      </c>
+      <c r="C4">
+        <v>166</v>
+      </c>
+      <c r="D4">
+        <v>31.83991927181381</v>
+      </c>
+      <c r="E4">
+        <v>34.1150197959808</v>
+      </c>
+      <c r="F4">
+        <v>11.10593474974115</v>
+      </c>
+      <c r="G4">
+        <v>9.141476697806866</v>
+      </c>
+      <c r="H4">
+        <v>4.781332934503184</v>
+      </c>
+      <c r="I4">
+        <v>170</v>
+      </c>
+      <c r="J4">
+        <v>38.64292602539064</v>
+      </c>
+      <c r="K4">
+        <v>46.96100033030791</v>
+      </c>
+      <c r="L4">
+        <v>13.08661391314342</v>
+      </c>
+      <c r="M4">
+        <v>6.504428639131447</v>
+      </c>
+      <c r="N4">
+        <v>5.312986380283353</v>
+      </c>
+      <c r="O4">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>33.9805629185268</v>
+      </c>
+      <c r="Q4">
+        <v>38.94251185825897</v>
+      </c>
+      <c r="R4">
+        <v>11.47821960449221</v>
+      </c>
+      <c r="S4">
+        <v>7.451436070033481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>7.383046987098145</v>
+      </c>
+      <c r="C5">
+        <v>1159</v>
+      </c>
+      <c r="D5">
+        <v>31.10791779749349</v>
+      </c>
+      <c r="E5">
+        <v>34.57848268497395</v>
+      </c>
+      <c r="F5">
+        <v>10.95880877911998</v>
+      </c>
+      <c r="G5">
+        <v>7.958104399713193</v>
+      </c>
+      <c r="H5">
+        <v>4.984063024571082</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>38.72357788085941</v>
+      </c>
+      <c r="K5">
+        <v>48.08423156738286</v>
+      </c>
+      <c r="L5">
+        <v>15.95814819335942</v>
+      </c>
+      <c r="M5">
+        <v>8.471731567382847</v>
+      </c>
+      <c r="N5">
+        <v>5.403361503281624</v>
+      </c>
+      <c r="O5">
+        <v>147</v>
+      </c>
+      <c r="P5">
+        <v>34.01027603668422</v>
+      </c>
+      <c r="Q5">
+        <v>38.49777753142274</v>
+      </c>
+      <c r="R5">
+        <v>10.54564051206421</v>
+      </c>
+      <c r="S5">
+        <v>6.88911253221994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>6.613202677405521</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>37.01619262695317</v>
+      </c>
+      <c r="E6">
+        <v>39.75770874023442</v>
+      </c>
+      <c r="F6">
+        <v>14.26919555664062</v>
+      </c>
+      <c r="G6">
+        <v>11.98568725585938</v>
+      </c>
+      <c r="H6">
+        <v>4.023128677253371</v>
+      </c>
+      <c r="I6">
+        <v>377</v>
+      </c>
+      <c r="J6">
+        <v>44.08896939305475</v>
+      </c>
+      <c r="K6">
+        <v>52.34518696509247</v>
+      </c>
+      <c r="L6">
+        <v>12.65984157086683</v>
+      </c>
+      <c r="M6">
+        <v>6.453366679791145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6.146487678837694</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>39.51528320312502</v>
+      </c>
+      <c r="E7">
+        <v>41.89214477539065</v>
+      </c>
+      <c r="F7">
+        <v>13.95288347516743</v>
+      </c>
+      <c r="G7">
+        <v>12.03947928292411</v>
+      </c>
+      <c r="H7">
+        <v>4.116460573023137</v>
+      </c>
+      <c r="I7">
+        <v>322</v>
+      </c>
+      <c r="J7">
+        <v>43.22850497228018</v>
+      </c>
+      <c r="K7">
+        <v>51.39555914268732</v>
+      </c>
+      <c r="L7">
+        <v>12.41813513714334</v>
+      </c>
+      <c r="M7">
+        <v>6.232920164499262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>8.378738837068909</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>31.88189086914065</v>
+      </c>
+      <c r="E8">
+        <v>34.05559692382809</v>
+      </c>
+      <c r="F8">
+        <v>13.8840270996094</v>
+      </c>
+      <c r="G8">
+        <v>11.99093017578127</v>
+      </c>
+      <c r="H8">
+        <v>3.829543206371367</v>
+      </c>
+      <c r="I8">
+        <v>420</v>
+      </c>
+      <c r="J8">
+        <v>45.75857471284417</v>
+      </c>
+      <c r="K8">
+        <v>53.82378976004469</v>
+      </c>
+      <c r="L8">
+        <v>12.4455990745908</v>
+      </c>
+      <c r="M8">
+        <v>6.48409205845428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>7.33795593432483</v>
+      </c>
+      <c r="C9">
+        <v>1294</v>
+      </c>
+      <c r="D9">
+        <v>31.05731468141727</v>
+      </c>
+      <c r="E9">
+        <v>34.72189866881098</v>
+      </c>
+      <c r="F9">
+        <v>10.88621672404793</v>
+      </c>
+      <c r="G9">
+        <v>7.721060072178091</v>
+      </c>
+      <c r="H9">
+        <v>4.471107825932153</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>43.72727864583334</v>
+      </c>
+      <c r="K9">
+        <v>53.72026977539065</v>
+      </c>
+      <c r="L9">
+        <v>16.87923583984377</v>
+      </c>
+      <c r="M9">
+        <v>9.114495849609398</v>
+      </c>
+      <c r="N9">
+        <v>5.43132921314686</v>
+      </c>
+      <c r="O9">
+        <v>168</v>
+      </c>
+      <c r="P9">
+        <v>33.29680350167411</v>
+      </c>
+      <c r="Q9">
+        <v>37.76960688999725</v>
+      </c>
+      <c r="R9">
+        <v>10.33339589436849</v>
+      </c>
+      <c r="S9">
+        <v>6.68383396693639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7.428239407202832</v>
+      </c>
+      <c r="C10">
+        <v>1050</v>
+      </c>
+      <c r="D10">
+        <v>31.20222888764886</v>
+      </c>
+      <c r="E10">
+        <v>34.30725963774182</v>
+      </c>
+      <c r="F10">
+        <v>10.78920944940478</v>
+      </c>
+      <c r="G10">
+        <v>8.10284615652904</v>
+      </c>
+      <c r="H10">
+        <v>4.596633741689145</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>41.81417236328127</v>
+      </c>
+      <c r="K10">
+        <v>51.42156575520835</v>
+      </c>
+      <c r="L10">
+        <v>15.66488647460938</v>
+      </c>
+      <c r="M10">
+        <v>8.142327880859398</v>
+      </c>
+      <c r="N10">
+        <v>5.929406965418542</v>
+      </c>
+      <c r="O10">
+        <v>146</v>
+      </c>
+      <c r="P10">
+        <v>32.04563314359484</v>
+      </c>
+      <c r="Q10">
+        <v>36.13010496374682</v>
+      </c>
+      <c r="R10">
+        <v>10.73588348806726</v>
+      </c>
+      <c r="S10">
+        <v>7.335708158310183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>6.469643772839342</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>36.76086832682296</v>
+      </c>
+      <c r="E11">
+        <v>39.24824422200521</v>
+      </c>
+      <c r="F11">
+        <v>14.03777974446615</v>
+      </c>
+      <c r="G11">
+        <v>11.98817850748702</v>
+      </c>
+      <c r="H11">
+        <v>4.321478490043432</v>
+      </c>
+      <c r="I11">
+        <v>282</v>
+      </c>
+      <c r="J11">
+        <v>41.49481478210885</v>
+      </c>
+      <c r="K11">
+        <v>49.87127811080177</v>
+      </c>
+      <c r="L11">
+        <v>12.45880771934566</v>
+      </c>
+      <c r="M11">
+        <v>6.017876115082004</v>
+      </c>
+      <c r="N11">
+        <v>5.038654278253346</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>37.41040191650393</v>
+      </c>
+      <c r="Q11">
+        <v>43.60300598144534</v>
+      </c>
+      <c r="R11">
+        <v>12.16474304199221</v>
+      </c>
+      <c r="S11">
+        <v>7.199487304687523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>7.558532148619529</v>
+      </c>
+      <c r="C12">
+        <v>550</v>
+      </c>
+      <c r="D12">
+        <v>31.33678566672586</v>
+      </c>
+      <c r="E12">
+        <v>33.95670532226563</v>
+      </c>
+      <c r="F12">
+        <v>10.89626376065343</v>
+      </c>
+      <c r="G12">
+        <v>8.625520241477318</v>
+      </c>
+      <c r="H12">
+        <v>5.045275561852627</v>
+      </c>
+      <c r="I12">
+        <v>104</v>
+      </c>
+      <c r="J12">
+        <v>37.56477391169625</v>
+      </c>
+      <c r="K12">
+        <v>46.70804807222811</v>
+      </c>
+      <c r="L12">
+        <v>14.19358978271487</v>
+      </c>
+      <c r="M12">
+        <v>6.851190185546898</v>
+      </c>
+      <c r="N12">
+        <v>5.496408693556951</v>
+      </c>
+      <c r="O12">
+        <v>82</v>
+      </c>
+      <c r="P12">
+        <v>34.79785066930259</v>
+      </c>
+      <c r="Q12">
+        <v>39.32541920731711</v>
+      </c>
+      <c r="R12">
+        <v>10.79523806688263</v>
+      </c>
+      <c r="S12">
+        <v>7.089963438452742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7.525570423099513</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>32.38003200954864</v>
+      </c>
+      <c r="E13">
+        <v>34.66739705403648</v>
+      </c>
+      <c r="F13">
+        <v>12.2542982313368</v>
+      </c>
+      <c r="G13">
+        <v>10.28068372938372</v>
+      </c>
+      <c r="H13">
+        <v>4.565067043461242</v>
+      </c>
+      <c r="I13">
+        <v>244</v>
+      </c>
+      <c r="J13">
+        <v>40.81750053030549</v>
+      </c>
+      <c r="K13">
+        <v>49.19233568535481</v>
+      </c>
+      <c r="L13">
+        <v>13.95635876264731</v>
+      </c>
+      <c r="M13">
+        <v>7.411321070936879</v>
+      </c>
+      <c r="N13">
+        <v>5.709247942675254</v>
+      </c>
+      <c r="O13">
+        <v>24</v>
+      </c>
+      <c r="P13">
+        <v>32.5592971801758</v>
+      </c>
+      <c r="Q13">
+        <v>37.05964558919271</v>
+      </c>
+      <c r="R13">
+        <v>11.93660888671877</v>
+      </c>
+      <c r="S13">
+        <v>8.228700256347679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7.773127664576427</v>
+      </c>
+      <c r="C14">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>31.54902064005535</v>
+      </c>
+      <c r="E14">
+        <v>33.78266932169601</v>
+      </c>
+      <c r="F14">
+        <v>11.57710215250654</v>
+      </c>
+      <c r="G14">
+        <v>9.634782155354856</v>
+      </c>
+      <c r="H14">
+        <v>5.04415204488047</v>
+      </c>
+      <c r="I14">
+        <v>154</v>
+      </c>
+      <c r="J14">
+        <v>38.53073896928271</v>
+      </c>
+      <c r="K14">
+        <v>47.3740934297636</v>
+      </c>
+      <c r="L14">
+        <v>15.19037047547181</v>
+      </c>
+      <c r="M14">
+        <v>8.097125006341344</v>
+      </c>
+      <c r="N14">
+        <v>6.235121168541967</v>
+      </c>
+      <c r="O14">
+        <v>38</v>
+      </c>
+      <c r="P14">
+        <v>31.52988184878706</v>
+      </c>
+      <c r="Q14">
+        <v>36.15564800061679</v>
+      </c>
+      <c r="R14">
+        <v>11.66780363384049</v>
+      </c>
+      <c r="S14">
+        <v>7.784490003083931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7.492845289483329</v>
+      </c>
+      <c r="C15">
+        <v>960</v>
+      </c>
+      <c r="D15">
+        <v>31.18871345520023</v>
+      </c>
+      <c r="E15">
+        <v>34.15987199147543</v>
+      </c>
+      <c r="F15">
+        <v>10.93857510884607</v>
+      </c>
+      <c r="G15">
+        <v>8.36455217997235</v>
+      </c>
+      <c r="H15">
+        <v>5.086337373005669</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>38.12490234375002</v>
+      </c>
+      <c r="K15">
+        <v>47.63530731201172</v>
+      </c>
+      <c r="L15">
+        <v>15.40851135253911</v>
+      </c>
+      <c r="M15">
+        <v>7.728692626953148</v>
+      </c>
+      <c r="N15">
+        <v>5.978043489098528</v>
+      </c>
+      <c r="O15">
+        <v>138</v>
+      </c>
+      <c r="P15">
+        <v>31.9035207554914</v>
+      </c>
+      <c r="Q15">
+        <v>35.8803641056669</v>
+      </c>
+      <c r="R15">
+        <v>11.0147891721864</v>
+      </c>
+      <c r="S15">
+        <v>7.707018069944525</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5.633867622873618</v>
+      </c>
+      <c r="C2">
+        <v>10.79264740264466</v>
+      </c>
+      <c r="D2">
+        <v>7.202924351820741</v>
+      </c>
+      <c r="E2">
+        <v>33.06603753967681</v>
+      </c>
+      <c r="F2">
+        <v>37.43029229650142</v>
+      </c>
+      <c r="G2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.420643472543721</v>
+      </c>
+      <c r="C3">
+        <v>10.97348137225077</v>
+      </c>
+      <c r="D3">
+        <v>8.240099764257081</v>
+      </c>
+      <c r="E3">
+        <v>31.25665112982489</v>
+      </c>
+      <c r="F3">
+        <v>34.41735043536875</v>
+      </c>
+      <c r="G3">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.29344111971022</v>
+      </c>
+      <c r="C4">
+        <v>13.12318436871925</v>
+      </c>
+      <c r="D4">
+        <v>6.690370976688598</v>
+      </c>
+      <c r="E4">
+        <v>42.25299840762682</v>
+      </c>
+      <c r="F4">
+        <v>50.63384533077959</v>
+      </c>
+      <c r="G4">
+        <v>2169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>7.759939702093285</v>
+      </c>
+      <c r="C4">
+        <v>176</v>
+      </c>
+      <c r="D4">
+        <v>31.55515927401456</v>
+      </c>
+      <c r="E4">
+        <v>33.80012491399594</v>
+      </c>
+      <c r="F4">
+        <v>11.34962061101743</v>
+      </c>
+      <c r="G4">
+        <v>9.39511642456057</v>
+      </c>
+      <c r="H4">
+        <v>4.658007950424855</v>
+      </c>
+      <c r="I4">
+        <v>130</v>
+      </c>
+      <c r="J4">
+        <v>39.466985144982</v>
+      </c>
+      <c r="K4">
+        <v>47.64891498272237</v>
+      </c>
+      <c r="L4">
+        <v>13.1114647498498</v>
+      </c>
+      <c r="M4">
+        <v>6.683157583383434</v>
+      </c>
+      <c r="N4">
+        <v>7.09987932863068</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>30.25400756835938</v>
+      </c>
+      <c r="Q4">
+        <v>34.144228515625</v>
+      </c>
+      <c r="R4">
+        <v>11.80753295898438</v>
+      </c>
+      <c r="S4">
+        <v>8.464659423828152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>7.431817769465942</v>
+      </c>
+      <c r="C5">
+        <v>1188</v>
+      </c>
+      <c r="D5">
+        <v>31.06403662684795</v>
+      </c>
+      <c r="E5">
+        <v>34.38136549413406</v>
+      </c>
+      <c r="F5">
+        <v>10.91632558906122</v>
+      </c>
+      <c r="G5">
+        <v>8.04605812560834</v>
+      </c>
+      <c r="H5">
+        <v>4.956237788483449</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>40.39189453125005</v>
+      </c>
+      <c r="K5">
+        <v>50.76814270019531</v>
+      </c>
+      <c r="L5">
+        <v>17.32294006347661</v>
+      </c>
+      <c r="M5">
+        <v>9.033529663085972</v>
+      </c>
+      <c r="N5">
+        <v>6.216612471586796</v>
+      </c>
+      <c r="O5">
+        <v>144</v>
+      </c>
+      <c r="P5">
+        <v>32.31088578965932</v>
+      </c>
+      <c r="Q5">
+        <v>36.82655614217123</v>
+      </c>
+      <c r="R5">
+        <v>10.8813580830892</v>
+      </c>
+      <c r="S5">
+        <v>7.091306304931663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>6.765442360884342</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>36.41717529296875</v>
+      </c>
+      <c r="E6">
+        <v>38.86410522460938</v>
+      </c>
+      <c r="F6">
+        <v>14.08228759765626</v>
+      </c>
+      <c r="G6">
+        <v>12.02468872070312</v>
+      </c>
+      <c r="H6">
+        <v>3.941426660636024</v>
+      </c>
+      <c r="I6">
+        <v>294</v>
+      </c>
+      <c r="J6">
+        <v>44.16606868821748</v>
+      </c>
+      <c r="K6">
+        <v>52.08145590023122</v>
+      </c>
+      <c r="L6">
+        <v>11.96722569887334</v>
+      </c>
+      <c r="M6">
+        <v>6.058510418327501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>7.842577757768456</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>33.2391448974609</v>
+      </c>
+      <c r="E7">
+        <v>35.60727844238284</v>
+      </c>
+      <c r="F7">
+        <v>14.04172668457034</v>
+      </c>
+      <c r="G7">
+        <v>11.9919372558594</v>
+      </c>
+      <c r="H7">
+        <v>4.053109368473166</v>
+      </c>
+      <c r="I7">
+        <v>265</v>
+      </c>
+      <c r="J7">
+        <v>43.4317891822671</v>
+      </c>
+      <c r="K7">
+        <v>51.32004820625741</v>
+      </c>
+      <c r="L7">
+        <v>12.0403490750295</v>
+      </c>
+      <c r="M7">
+        <v>6.095564126068723</v>
+      </c>
+      <c r="N7">
+        <v>6.878446986931308</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>29.14919433593752</v>
+      </c>
+      <c r="Q7">
+        <v>36.76242980957034</v>
+      </c>
+      <c r="R7">
+        <v>13.54012451171877</v>
+      </c>
+      <c r="S7">
+        <v>7.03595886230471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>8.558371895128122</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>31.41326293945315</v>
+      </c>
+      <c r="E8">
+        <v>33.30056152343752</v>
+      </c>
+      <c r="F8">
+        <v>13.64760742187502</v>
+      </c>
+      <c r="G8">
+        <v>11.9930358886719</v>
+      </c>
+      <c r="H8">
+        <v>3.674836976093234</v>
+      </c>
+      <c r="I8">
+        <v>348</v>
+      </c>
+      <c r="J8">
+        <v>46.62470994269711</v>
+      </c>
+      <c r="K8">
+        <v>54.41998048979661</v>
+      </c>
+      <c r="L8">
+        <v>11.83986991794632</v>
+      </c>
+      <c r="M8">
+        <v>6.164309481916803</v>
+      </c>
+      <c r="N8">
+        <v>5.06253117078933</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>37.89461669921877</v>
+      </c>
+      <c r="Q8">
+        <v>47.62737426757809</v>
+      </c>
+      <c r="R8">
+        <v>14.5505310058594</v>
+      </c>
+      <c r="S8">
+        <v>6.743463134765648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>7.337188897363953</v>
+      </c>
+      <c r="C9">
+        <v>1350</v>
+      </c>
+      <c r="D9">
+        <v>31.12184624565975</v>
+      </c>
+      <c r="E9">
+        <v>34.57919849537041</v>
+      </c>
+      <c r="F9">
+        <v>10.72193463360821</v>
+      </c>
+      <c r="G9">
+        <v>7.735730161313654</v>
+      </c>
+      <c r="H9">
+        <v>4.474579870599759</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>44.9330993652344</v>
+      </c>
+      <c r="K9">
+        <v>55.30485432942709</v>
+      </c>
+      <c r="L9">
+        <v>18.48049316406252</v>
+      </c>
+      <c r="M9">
+        <v>10.42180786132809</v>
+      </c>
+      <c r="N9">
+        <v>5.837215108715606</v>
+      </c>
+      <c r="O9">
+        <v>124</v>
+      </c>
+      <c r="P9">
+        <v>33.00010710685484</v>
+      </c>
+      <c r="Q9">
+        <v>37.80812102287047</v>
+      </c>
+      <c r="R9">
+        <v>10.60403176584555</v>
+      </c>
+      <c r="S9">
+        <v>6.618124980311279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7.437333965090077</v>
+      </c>
+      <c r="C10">
+        <v>1072</v>
+      </c>
+      <c r="D10">
+        <v>31.15954918932562</v>
+      </c>
+      <c r="E10">
+        <v>34.14668916161384</v>
+      </c>
+      <c r="F10">
+        <v>10.73266902183423</v>
+      </c>
+      <c r="G10">
+        <v>8.146864694623844</v>
+      </c>
+      <c r="H10">
+        <v>4.897503065424548</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>40.31514638264974</v>
+      </c>
+      <c r="K10">
+        <v>50.45122426350912</v>
+      </c>
+      <c r="L10">
+        <v>16.56921539306643</v>
+      </c>
+      <c r="M10">
+        <v>8.491390482584677</v>
+      </c>
+      <c r="N10">
+        <v>6.280996730536713</v>
+      </c>
+      <c r="O10">
+        <v>134</v>
+      </c>
+      <c r="P10">
+        <v>31.30966623790232</v>
+      </c>
+      <c r="Q10">
+        <v>35.70563135858794</v>
+      </c>
+      <c r="R10">
+        <v>11.23187829772041</v>
+      </c>
+      <c r="S10">
+        <v>7.535440746705945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>8.029153520399035</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>32.45766262478298</v>
+      </c>
+      <c r="E11">
+        <v>34.49568074544271</v>
+      </c>
+      <c r="F11">
+        <v>13.49776950412331</v>
+      </c>
+      <c r="G11">
+        <v>11.72566460503475</v>
+      </c>
+      <c r="H11">
+        <v>4.309874707993998</v>
+      </c>
+      <c r="I11">
+        <v>238</v>
+      </c>
+      <c r="J11">
+        <v>41.50521035074189</v>
+      </c>
+      <c r="K11">
+        <v>49.51941128257948</v>
+      </c>
+      <c r="L11">
+        <v>12.24264198110887</v>
+      </c>
+      <c r="M11">
+        <v>6.086899496126591</v>
+      </c>
+      <c r="N11">
+        <v>6.730832247770081</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>32.18399200439455</v>
+      </c>
+      <c r="Q11">
+        <v>37.14314422607424</v>
+      </c>
+      <c r="R11">
+        <v>11.89921722412112</v>
+      </c>
+      <c r="S11">
+        <v>7.675920104980491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>7.749685222440331</v>
+      </c>
+      <c r="C12">
+        <v>636</v>
+      </c>
+      <c r="D12">
+        <v>31.18673210863801</v>
+      </c>
+      <c r="E12">
+        <v>33.67120739439002</v>
+      </c>
+      <c r="F12">
+        <v>11.01521794541077</v>
+      </c>
+      <c r="G12">
+        <v>8.852566931382682</v>
+      </c>
+      <c r="H12">
+        <v>5.167472333338741</v>
+      </c>
+      <c r="I12">
+        <v>78</v>
+      </c>
+      <c r="J12">
+        <v>36.99390211838943</v>
+      </c>
+      <c r="K12">
+        <v>45.94823451898037</v>
+      </c>
+      <c r="L12">
+        <v>13.89413546048678</v>
+      </c>
+      <c r="M12">
+        <v>6.663302064553307</v>
+      </c>
+      <c r="N12">
+        <v>6.447321263517511</v>
+      </c>
+      <c r="O12">
+        <v>88</v>
+      </c>
+      <c r="P12">
+        <v>30.66375815651634</v>
+      </c>
+      <c r="Q12">
+        <v>34.85635736638852</v>
+      </c>
+      <c r="R12">
+        <v>11.22845958362927</v>
+      </c>
+      <c r="S12">
+        <v>7.683715959028802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>8.081408230525073</v>
+      </c>
+      <c r="C13">
+        <v>166</v>
+      </c>
+      <c r="D13">
+        <v>31.59579960466868</v>
+      </c>
+      <c r="E13">
+        <v>33.76136812876507</v>
+      </c>
+      <c r="F13">
+        <v>12.5675171633801</v>
+      </c>
+      <c r="G13">
+        <v>10.677101374247</v>
+      </c>
+      <c r="H13">
+        <v>4.493719696143078</v>
+      </c>
+      <c r="I13">
+        <v>186</v>
+      </c>
+      <c r="J13">
+        <v>40.84722257224462</v>
+      </c>
+      <c r="K13">
+        <v>49.30748638850389</v>
+      </c>
+      <c r="L13">
+        <v>13.25978610131051</v>
+      </c>
+      <c r="M13">
+        <v>6.679878940377193</v>
+      </c>
+      <c r="N13">
+        <v>8.971583377100833</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>27.44121981534096</v>
+      </c>
+      <c r="Q13">
+        <v>30.64522427645596</v>
+      </c>
+      <c r="R13">
+        <v>11.9128162730824</v>
+      </c>
+      <c r="S13">
+        <v>9.066075550426149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7.775730049572667</v>
+      </c>
+      <c r="C14">
+        <v>268</v>
+      </c>
+      <c r="D14">
+        <v>31.57929291226975</v>
+      </c>
+      <c r="E14">
+        <v>33.85873463189427</v>
+      </c>
+      <c r="F14">
+        <v>11.72944782314016</v>
+      </c>
+      <c r="G14">
+        <v>9.745654251326414</v>
+      </c>
+      <c r="H14">
+        <v>4.99158361533608</v>
+      </c>
+      <c r="I14">
+        <v>122</v>
+      </c>
+      <c r="J14">
+        <v>38.34828801389602</v>
+      </c>
+      <c r="K14">
+        <v>47.51630729300081</v>
+      </c>
+      <c r="L14">
+        <v>14.84182228963886</v>
+      </c>
+      <c r="M14">
+        <v>7.507223560771024</v>
+      </c>
+      <c r="N14">
+        <v>5.732069821225131</v>
+      </c>
+      <c r="O14">
+        <v>36</v>
+      </c>
+      <c r="P14">
+        <v>32.17709418402779</v>
+      </c>
+      <c r="Q14">
+        <v>36.62971055772573</v>
+      </c>
+      <c r="R14">
+        <v>12.12888319227432</v>
+      </c>
+      <c r="S14">
+        <v>8.445894707573814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7.563964156116528</v>
+      </c>
+      <c r="C15">
+        <v>1068</v>
+      </c>
+      <c r="D15">
+        <v>31.16033662374548</v>
+      </c>
+      <c r="E15">
+        <v>34.00941194112829</v>
+      </c>
+      <c r="F15">
+        <v>10.96873841017822</v>
+      </c>
+      <c r="G15">
+        <v>8.496358647150089</v>
+      </c>
+      <c r="H15">
+        <v>5.264165494605383</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>36.9512898106729</v>
+      </c>
+      <c r="K15">
+        <v>46.43440276115172</v>
+      </c>
+      <c r="L15">
+        <v>15.63286940051665</v>
+      </c>
+      <c r="M15">
+        <v>7.94628000567036</v>
+      </c>
+      <c r="N15">
+        <v>6.5897613029055</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>30.54152770996097</v>
+      </c>
+      <c r="Q15">
+        <v>35.01116027832035</v>
+      </c>
+      <c r="R15">
+        <v>11.73054748535156</v>
+      </c>
+      <c r="S15">
+        <v>7.94239562988281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6.279009514959481</v>
+      </c>
+      <c r="C2">
+        <v>11.24286939348497</v>
+      </c>
+      <c r="D2">
+        <v>7.493225577218197</v>
+      </c>
+      <c r="E2">
+        <v>31.53961730957036</v>
+      </c>
+      <c r="F2">
+        <v>35.99865984235493</v>
+      </c>
+      <c r="G2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.487920169166738</v>
+      </c>
+      <c r="C3">
+        <v>10.97069434773886</v>
+      </c>
+      <c r="D3">
+        <v>8.372066575402869</v>
+      </c>
+      <c r="E3">
+        <v>31.19195365278307</v>
+      </c>
+      <c r="F3">
+        <v>34.19186208980443</v>
+      </c>
+      <c r="G3">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.222880187845393</v>
+      </c>
+      <c r="C4">
+        <v>12.7140974638246</v>
+      </c>
+      <c r="D4">
+        <v>6.446960179430789</v>
+      </c>
+      <c r="E4">
+        <v>42.52622526149116</v>
+      </c>
+      <c r="F4">
+        <v>50.73451489734322</v>
+      </c>
+      <c r="G4">
+        <v>1742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>7.721221634415117</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>31.56467447916668</v>
+      </c>
+      <c r="E4">
+        <v>33.78026245117189</v>
+      </c>
+      <c r="F4">
+        <v>10.8016902669271</v>
+      </c>
+      <c r="G4">
+        <v>8.874253743489589</v>
+      </c>
+      <c r="H4">
+        <v>4.351137486305375</v>
+      </c>
+      <c r="I4">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>41.46514004794034</v>
+      </c>
+      <c r="K4">
+        <v>49.78984985351565</v>
+      </c>
+      <c r="L4">
+        <v>12.25086642178627</v>
+      </c>
+      <c r="M4">
+        <v>5.837462824041211</v>
+      </c>
+      <c r="N4">
+        <v>5.052550537881492</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>40.7408157348633</v>
+      </c>
+      <c r="Q4">
+        <v>44.96680603027346</v>
+      </c>
+      <c r="R4">
+        <v>12.20155487060549</v>
+      </c>
+      <c r="S4">
+        <v>8.81104431152346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>7.410546092348787</v>
+      </c>
+      <c r="C5">
+        <v>1052</v>
+      </c>
+      <c r="D5">
+        <v>31.04672147221441</v>
+      </c>
+      <c r="E5">
+        <v>34.04413101718455</v>
+      </c>
+      <c r="F5">
+        <v>10.18454941434101</v>
+      </c>
+      <c r="G5">
+        <v>7.592190981092585</v>
+      </c>
+      <c r="H5">
+        <v>4.544972623050476</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>44.24854939778646</v>
+      </c>
+      <c r="K5">
+        <v>54.63077189127608</v>
+      </c>
+      <c r="L5">
+        <v>18.33693847656252</v>
+      </c>
+      <c r="M5">
+        <v>10.23237508138021</v>
+      </c>
+      <c r="N5">
+        <v>4.366099726969064</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>41.58123168945315</v>
+      </c>
+      <c r="Q5">
+        <v>47.1061950683594</v>
+      </c>
+      <c r="R5">
+        <v>9.905568695068382</v>
+      </c>
+      <c r="S5">
+        <v>5.643941497802757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>7.37303602010548</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>34.62538452148442</v>
+      </c>
+      <c r="E6">
+        <v>37.08765258789066</v>
+      </c>
+      <c r="F6">
+        <v>14.09600830078125</v>
+      </c>
+      <c r="G6">
+        <v>11.98695678710942</v>
+      </c>
+      <c r="H6">
+        <v>3.742801773513125</v>
+      </c>
+      <c r="I6">
+        <v>181</v>
+      </c>
+      <c r="J6">
+        <v>46.04701423434267</v>
+      </c>
+      <c r="K6">
+        <v>53.83915209691173</v>
+      </c>
+      <c r="L6">
+        <v>11.67545867414105</v>
+      </c>
+      <c r="M6">
+        <v>5.962230501122235</v>
+      </c>
+      <c r="N6">
+        <v>3.937928058477451</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>46.29995117187502</v>
+      </c>
+      <c r="Q6">
+        <v>55.38594970703127</v>
+      </c>
+      <c r="R6">
+        <v>14.2642761230469</v>
+      </c>
+      <c r="S6">
+        <v>7.488336181640648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6.941631418136154</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>35.4313674926758</v>
+      </c>
+      <c r="E7">
+        <v>37.87835845947268</v>
+      </c>
+      <c r="F7">
+        <v>14.03883132934573</v>
+      </c>
+      <c r="G7">
+        <v>11.98562393188479</v>
+      </c>
+      <c r="H7">
+        <v>3.841251673980095</v>
+      </c>
+      <c r="I7">
+        <v>150</v>
+      </c>
+      <c r="J7">
+        <v>45.0896044921875</v>
+      </c>
+      <c r="K7">
+        <v>52.95936360677086</v>
+      </c>
+      <c r="L7">
+        <v>11.62788574218752</v>
+      </c>
+      <c r="M7">
+        <v>5.804315999349001</v>
+      </c>
+      <c r="N7">
+        <v>5.653295532988851</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>40.75057373046877</v>
+      </c>
+      <c r="Q7">
+        <v>42.63498840332034</v>
+      </c>
+      <c r="R7">
+        <v>12.9041687011719</v>
+      </c>
+      <c r="S7">
+        <v>11.36374816894534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7.655989261114008</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>33.94466552734377</v>
+      </c>
+      <c r="E8">
+        <v>36.39074859619143</v>
+      </c>
+      <c r="F8">
+        <v>14.06445465087893</v>
+      </c>
+      <c r="G8">
+        <v>11.95670471191409</v>
+      </c>
+      <c r="H8">
+        <v>3.558684647467452</v>
+      </c>
+      <c r="I8">
+        <v>210</v>
+      </c>
+      <c r="J8">
+        <v>47.80831502278647</v>
+      </c>
+      <c r="K8">
+        <v>55.78285173688619</v>
+      </c>
+      <c r="L8">
+        <v>11.60392252604169</v>
+      </c>
+      <c r="M8">
+        <v>5.866975039527574</v>
+      </c>
+      <c r="N8">
+        <v>4.134260633549681</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>43.84356079101565</v>
+      </c>
+      <c r="Q8">
+        <v>50.86882934570315</v>
+      </c>
+      <c r="R8">
+        <v>14.19028116861983</v>
+      </c>
+      <c r="S8">
+        <v>8.804203287760458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>7.391857099409189</v>
+      </c>
+      <c r="C9">
+        <v>1178</v>
+      </c>
+      <c r="D9">
+        <v>31.00059383372906</v>
+      </c>
+      <c r="E9">
+        <v>34.03962332914966</v>
+      </c>
+      <c r="F9">
+        <v>9.997912172793576</v>
+      </c>
+      <c r="G9">
+        <v>7.370071706464216</v>
+      </c>
+      <c r="H9">
+        <v>4.47449257763119</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>44.92266998291018</v>
+      </c>
+      <c r="K9">
+        <v>55.2886672973633</v>
+      </c>
+      <c r="L9">
+        <v>18.46661529541018</v>
+      </c>
+      <c r="M9">
+        <v>10.41018829345705</v>
+      </c>
+      <c r="N9">
+        <v>4.311678867927877</v>
+      </c>
+      <c r="O9">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>41.78496365017361</v>
+      </c>
+      <c r="Q9">
+        <v>47.22034098307296</v>
+      </c>
+      <c r="R9">
+        <v>9.624837917751734</v>
+      </c>
+      <c r="S9">
+        <v>5.43598497178823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7.446704553108323</v>
+      </c>
+      <c r="C10">
+        <v>882</v>
+      </c>
+      <c r="D10">
+        <v>31.10776994147272</v>
+      </c>
+      <c r="E10">
+        <v>33.91837757482551</v>
+      </c>
+      <c r="F10">
+        <v>10.03222371142471</v>
+      </c>
+      <c r="G10">
+        <v>7.600116465043072</v>
+      </c>
+      <c r="H10">
+        <v>4.376463120508689</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>45.2701624253217</v>
+      </c>
+      <c r="K10">
+        <v>55.42992015165441</v>
+      </c>
+      <c r="L10">
+        <v>17.86190006031711</v>
+      </c>
+      <c r="M10">
+        <v>10.01626335592834</v>
+      </c>
+      <c r="N10">
+        <v>4.695950346230021</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>41.01798019409182</v>
+      </c>
+      <c r="Q10">
+        <v>44.02913436889651</v>
+      </c>
+      <c r="R10">
+        <v>9.232625579834007</v>
+      </c>
+      <c r="S10">
+        <v>6.840825653076195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>7.093418803967047</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>35.03006134033205</v>
+      </c>
+      <c r="E11">
+        <v>37.59351806640626</v>
+      </c>
+      <c r="F11">
+        <v>14.17854766845704</v>
+      </c>
+      <c r="G11">
+        <v>11.99583282470707</v>
+      </c>
+      <c r="H11">
+        <v>3.95230966147591</v>
+      </c>
+      <c r="I11">
+        <v>112</v>
+      </c>
+      <c r="J11">
+        <v>43.92574844360354</v>
+      </c>
+      <c r="K11">
+        <v>51.63079496111192</v>
+      </c>
+      <c r="L11">
+        <v>11.41301661900116</v>
+      </c>
+      <c r="M11">
+        <v>5.654586683000844</v>
+      </c>
+      <c r="N11">
+        <v>4.649161934232024</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>41.00161132812502</v>
+      </c>
+      <c r="Q11">
+        <v>50.63387451171877</v>
+      </c>
+      <c r="R11">
+        <v>14.93865356445315</v>
+      </c>
+      <c r="S11">
+        <v>7.373559570312523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>7.541972414518091</v>
+      </c>
+      <c r="C12">
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <v>31.24879030713851</v>
+      </c>
+      <c r="E12">
+        <v>33.69511898265165</v>
+      </c>
+      <c r="F12">
+        <v>10.3100857603784</v>
+      </c>
+      <c r="G12">
+        <v>8.191321877872269</v>
+      </c>
+      <c r="H12">
+        <v>4.514005942695815</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>41.45917663574221</v>
+      </c>
+      <c r="K12">
+        <v>50.46552429199221</v>
+      </c>
+      <c r="L12">
+        <v>14.27948303222661</v>
+      </c>
+      <c r="M12">
+        <v>7.26368103027346</v>
+      </c>
+      <c r="N12">
+        <v>4.415448088043092</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>41.51280110677084</v>
+      </c>
+      <c r="Q12">
+        <v>47.58637898763021</v>
+      </c>
+      <c r="R12">
+        <v>10.64970804850265</v>
+      </c>
+      <c r="S12">
+        <v>5.952055867513025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7.66768486835905</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>32.91554260253906</v>
+      </c>
+      <c r="E13">
+        <v>35.41314086914065</v>
+      </c>
+      <c r="F13">
+        <v>13.18740539550782</v>
+      </c>
+      <c r="G13">
+        <v>11.01865234375003</v>
+      </c>
+      <c r="H13">
+        <v>4.062335330679176</v>
+      </c>
+      <c r="I13">
+        <v>84</v>
+      </c>
+      <c r="J13">
+        <v>43.96583818708149</v>
+      </c>
+      <c r="K13">
+        <v>51.97750026157928</v>
+      </c>
+      <c r="L13">
+        <v>12.67388596307666</v>
+      </c>
+      <c r="M13">
+        <v>6.630708676292784</v>
+      </c>
+      <c r="N13">
+        <v>4.237110084276822</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>43.3350921630859</v>
+      </c>
+      <c r="Q13">
+        <v>50.59223327636721</v>
+      </c>
+      <c r="R13">
+        <v>12.47940979003909</v>
+      </c>
+      <c r="S13">
+        <v>6.938134765625023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7.724353118596101</v>
+      </c>
+      <c r="C14">
+        <v>202</v>
+      </c>
+      <c r="D14">
+        <v>31.56031596873066</v>
+      </c>
+      <c r="E14">
+        <v>33.75037219359143</v>
+      </c>
+      <c r="F14">
+        <v>11.29476650729038</v>
+      </c>
+      <c r="G14">
+        <v>9.38757287960243</v>
+      </c>
+      <c r="H14">
+        <v>4.373087507604456</v>
+      </c>
+      <c r="I14">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>42.36616559709825</v>
+      </c>
+      <c r="K14">
+        <v>51.18200218563993</v>
+      </c>
+      <c r="L14">
+        <v>13.77487298874632</v>
+      </c>
+      <c r="M14">
+        <v>6.970930989583337</v>
+      </c>
+      <c r="N14">
+        <v>4.89424327808633</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>41.1429382324219</v>
+      </c>
+      <c r="Q14">
+        <v>44.23893127441409</v>
+      </c>
+      <c r="R14">
+        <v>11.44046936035159</v>
+      </c>
+      <c r="S14">
+        <v>8.976586914062523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7.558922312995421</v>
+      </c>
+      <c r="C15">
+        <v>776</v>
+      </c>
+      <c r="D15">
+        <v>31.04191734078006</v>
+      </c>
+      <c r="E15">
+        <v>33.65363495816894</v>
+      </c>
+      <c r="F15">
+        <v>10.09137139074585</v>
+      </c>
+      <c r="G15">
+        <v>7.825372786374487</v>
+      </c>
+      <c r="H15">
+        <v>4.664938036409009</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>42.13029087611608</v>
+      </c>
+      <c r="K15">
+        <v>52.21588832310272</v>
+      </c>
+      <c r="L15">
+        <v>16.76560581752233</v>
+      </c>
+      <c r="M15">
+        <v>8.837697056361606</v>
+      </c>
+      <c r="N15">
+        <v>4.26223066926918</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>42.15327351888021</v>
+      </c>
+      <c r="Q15">
+        <v>47.77563883463546</v>
+      </c>
+      <c r="R15">
+        <v>9.413334147135458</v>
+      </c>
+      <c r="S15">
+        <v>5.109552001953148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4.407684783920944</v>
+      </c>
+      <c r="C2">
+        <v>10.66029686561001</v>
+      </c>
+      <c r="D2">
+        <v>6.658601379394554</v>
+      </c>
+      <c r="E2">
+        <v>41.75206791804391</v>
+      </c>
+      <c r="F2">
+        <v>46.91660872239333</v>
+      </c>
+      <c r="G2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.461540504390969</v>
+      </c>
+      <c r="C3">
+        <v>10.2598041308554</v>
+      </c>
+      <c r="D3">
+        <v>7.849012319665235</v>
+      </c>
+      <c r="E3">
+        <v>31.17901659764743</v>
+      </c>
+      <c r="F3">
+        <v>33.96418168168321</v>
+      </c>
+      <c r="G3">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.880740156449135</v>
+      </c>
+      <c r="C4">
+        <v>12.20318319647163</v>
+      </c>
+      <c r="D4">
+        <v>6.200169138865476</v>
+      </c>
+      <c r="E4">
+        <v>45.23404141675246</v>
+      </c>
+      <c r="F4">
+        <v>53.31653379835524</v>
+      </c>
+      <c r="G4">
+        <v>888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>7.586160572676187</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>32.11462946711362</v>
+      </c>
+      <c r="E4">
+        <v>34.25628216717695</v>
+      </c>
+      <c r="F4">
+        <v>11.15256611592065</v>
+      </c>
+      <c r="G4">
+        <v>9.303617405247053</v>
+      </c>
+      <c r="H4">
+        <v>4.214717553305205</v>
+      </c>
+      <c r="I4">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>42.48515670211231</v>
+      </c>
+      <c r="K4">
+        <v>50.62651073314527</v>
+      </c>
+      <c r="L4">
+        <v>12.45805370189527</v>
+      </c>
+      <c r="M4">
+        <v>6.245374439380782</v>
+      </c>
+      <c r="N4">
+        <v>4.647063483368588</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>40.94210205078127</v>
+      </c>
+      <c r="Q4">
+        <v>46.40374145507815</v>
+      </c>
+      <c r="R4">
+        <v>10.5589477539063</v>
+      </c>
+      <c r="S4">
+        <v>6.27156372070317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>7.496905054619048</v>
+      </c>
+      <c r="C5">
+        <v>728</v>
+      </c>
+      <c r="D5">
+        <v>31.03543897356309</v>
+      </c>
+      <c r="E5">
+        <v>33.57546629853306</v>
+      </c>
+      <c r="F5">
+        <v>9.473977744972331</v>
+      </c>
+      <c r="G5">
+        <v>7.273438355162909</v>
+      </c>
+      <c r="H5">
+        <v>4.494201639777108</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>44.52756770207333</v>
+      </c>
+      <c r="K5">
+        <v>54.53228149414065</v>
+      </c>
+      <c r="L5">
+        <v>17.82304593599764</v>
+      </c>
+      <c r="M5">
+        <v>9.986434701772851</v>
+      </c>
+      <c r="N5">
+        <v>4.644613842079584</v>
+      </c>
+      <c r="O5">
+        <v>22</v>
+      </c>
+      <c r="P5">
+        <v>40.11795820756396</v>
+      </c>
+      <c r="Q5">
+        <v>43.45418423739346</v>
+      </c>
+      <c r="R5">
+        <v>9.080604691938959</v>
+      </c>
+      <c r="S5">
+        <v>6.427067982066774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>6.467815142774288</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>37.45181274414062</v>
+      </c>
+      <c r="E6">
+        <v>39.83982543945314</v>
+      </c>
+      <c r="F6">
+        <v>14.0173217773438</v>
+      </c>
+      <c r="G6">
+        <v>12.02756347656253</v>
+      </c>
+      <c r="H6">
+        <v>3.814228890225799</v>
+      </c>
+      <c r="I6">
+        <v>165</v>
+      </c>
+      <c r="J6">
+        <v>45.4185065991951</v>
+      </c>
+      <c r="K6">
+        <v>53.11996330492428</v>
+      </c>
+      <c r="L6">
+        <v>11.66533573035042</v>
+      </c>
+      <c r="M6">
+        <v>5.981430146188472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>7.589975148610441</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>34.19303937639512</v>
+      </c>
+      <c r="E7">
+        <v>36.50831211635045</v>
+      </c>
+      <c r="F7">
+        <v>13.95040283203127</v>
+      </c>
+      <c r="G7">
+        <v>11.9578578404018</v>
+      </c>
+      <c r="H7">
+        <v>3.786367310776712</v>
+      </c>
+      <c r="I7">
+        <v>148</v>
+      </c>
+      <c r="J7">
+        <v>45.50633083034211</v>
+      </c>
+      <c r="K7">
+        <v>53.18377652554904</v>
+      </c>
+      <c r="L7">
+        <v>11.5323792328706</v>
+      </c>
+      <c r="M7">
+        <v>5.880058577254033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7.781097150237675</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>33.38124237060549</v>
+      </c>
+      <c r="E8">
+        <v>35.46614227294924</v>
+      </c>
+      <c r="F8">
+        <v>13.77274475097659</v>
+      </c>
+      <c r="G8">
+        <v>11.98771820068362</v>
+      </c>
+      <c r="H8">
+        <v>3.588445184324084</v>
+      </c>
+      <c r="I8">
+        <v>192</v>
+      </c>
+      <c r="J8">
+        <v>47.18534749348959</v>
+      </c>
+      <c r="K8">
+        <v>54.9798688252767</v>
+      </c>
+      <c r="L8">
+        <v>11.22219492594405</v>
+      </c>
+      <c r="M8">
+        <v>5.597474034627282</v>
+      </c>
+      <c r="N8">
+        <v>3.791264028168846</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>45.04903564453127</v>
+      </c>
+      <c r="Q8">
+        <v>53.39116821289065</v>
+      </c>
+      <c r="R8">
+        <v>11.07528076171877</v>
+      </c>
+      <c r="S8">
+        <v>4.928735351562523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>7.358371256750395</v>
+      </c>
+      <c r="C9">
+        <v>842</v>
+      </c>
+      <c r="D9">
+        <v>31.17148623070074</v>
+      </c>
+      <c r="E9">
+        <v>33.7612003716041</v>
+      </c>
+      <c r="F9">
+        <v>9.428757967914976</v>
+      </c>
+      <c r="G9">
+        <v>7.191903650279301</v>
+      </c>
+      <c r="H9">
+        <v>4.669741604395946</v>
+      </c>
+      <c r="I9">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <v>43.3273670543324</v>
+      </c>
+      <c r="K9">
+        <v>53.8138366699219</v>
+      </c>
+      <c r="L9">
+        <v>18.4290322043679</v>
+      </c>
+      <c r="M9">
+        <v>10.18159845525571</v>
+      </c>
+      <c r="N9">
+        <v>4.510353674526065</v>
+      </c>
+      <c r="O9">
+        <v>22</v>
+      </c>
+      <c r="P9">
+        <v>41.0931529651989</v>
+      </c>
+      <c r="Q9">
+        <v>45.09063942649152</v>
+      </c>
+      <c r="R9">
+        <v>9.026535866477275</v>
+      </c>
+      <c r="S9">
+        <v>5.901821621981583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7.404081904641973</v>
+      </c>
+      <c r="C10">
+        <v>588</v>
+      </c>
+      <c r="D10">
+        <v>31.1752163841611</v>
+      </c>
+      <c r="E10">
+        <v>33.6395712301034</v>
+      </c>
+      <c r="F10">
+        <v>9.455077938157729</v>
+      </c>
+      <c r="G10">
+        <v>7.323955323096072</v>
+      </c>
+      <c r="H10">
+        <v>4.467058199335463</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>43.66198589618392</v>
+      </c>
+      <c r="K10">
+        <v>53.21159104567312</v>
+      </c>
+      <c r="L10">
+        <v>16.28947190504812</v>
+      </c>
+      <c r="M10">
+        <v>8.769614351712789</v>
+      </c>
+      <c r="N10">
+        <v>4.381828763505292</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>41.64987843831381</v>
+      </c>
+      <c r="Q10">
+        <v>45.29980621337893</v>
+      </c>
+      <c r="R10">
+        <v>8.645303344726585</v>
+      </c>
+      <c r="S10">
+        <v>5.827142333984398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>6.858360206762137</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>35.77777797154022</v>
+      </c>
+      <c r="E11">
+        <v>37.98692801339286</v>
+      </c>
+      <c r="F11">
+        <v>13.73727896554129</v>
+      </c>
+      <c r="G11">
+        <v>11.8823399135045</v>
+      </c>
+      <c r="H11">
+        <v>3.917613360459079</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
+      <c r="J11">
+        <v>44.1377409435454</v>
+      </c>
+      <c r="K11">
+        <v>52.0441554478237</v>
+      </c>
+      <c r="L11">
+        <v>11.51689046223959</v>
+      </c>
+      <c r="M11">
+        <v>5.626030622209839</v>
+      </c>
+      <c r="N11">
+        <v>4.051326070456345</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>44.41958007812502</v>
+      </c>
+      <c r="Q11">
+        <v>53.3686462402344</v>
+      </c>
+      <c r="R11">
+        <v>13.27773437500002</v>
+      </c>
+      <c r="S11">
+        <v>6.540460205078091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>7.610258377283341</v>
+      </c>
+      <c r="C12">
+        <v>312</v>
+      </c>
+      <c r="D12">
+        <v>31.3202794001653</v>
+      </c>
+      <c r="E12">
+        <v>33.55421228653347</v>
+      </c>
+      <c r="F12">
+        <v>9.908255513509118</v>
+      </c>
+      <c r="G12">
+        <v>7.97070054274343</v>
+      </c>
+      <c r="H12">
+        <v>4.240585024436141</v>
+      </c>
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>44.14587151022522</v>
+      </c>
+      <c r="K12">
+        <v>53.36438455020681</v>
+      </c>
+      <c r="L12">
+        <v>14.84706851734836</v>
+      </c>
+      <c r="M12">
+        <v>7.795996452780344</v>
+      </c>
+      <c r="N12">
+        <v>4.422938761978654</v>
+      </c>
+      <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>41.49107894897463</v>
+      </c>
+      <c r="Q12">
+        <v>45.75662002563479</v>
+      </c>
+      <c r="R12">
+        <v>10.38438568115237</v>
+      </c>
+      <c r="S12">
+        <v>7.082849121093773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7.394628856081036</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>34.00544467502175</v>
+      </c>
+      <c r="E13">
+        <v>36.41426493326827</v>
+      </c>
+      <c r="F13">
+        <v>13.70471259223092</v>
+      </c>
+      <c r="G13">
+        <v>11.6387691921658</v>
+      </c>
+      <c r="H13">
+        <v>4.035369333061277</v>
+      </c>
+      <c r="I13">
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <v>44.16179653069912</v>
+      </c>
+      <c r="K13">
+        <v>52.63552637344753</v>
+      </c>
+      <c r="L13">
+        <v>12.48509975335537</v>
+      </c>
+      <c r="M13">
+        <v>6.109746844951928</v>
+      </c>
+      <c r="N13">
+        <v>4.874707620780289</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>41.1732116699219</v>
+      </c>
+      <c r="Q13">
+        <v>45.77793273925784</v>
+      </c>
+      <c r="R13">
+        <v>11.40369567871096</v>
+      </c>
+      <c r="S13">
+        <v>7.743341064453148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7.568179369507457</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>32.58606173197433</v>
+      </c>
+      <c r="E14">
+        <v>34.81594492594405</v>
+      </c>
+      <c r="F14">
+        <v>11.98451004028323</v>
+      </c>
+      <c r="G14">
+        <v>10.05626131693526</v>
+      </c>
+      <c r="H14">
+        <v>4.241557687305115</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>43.38337036132816</v>
+      </c>
+      <c r="K14">
+        <v>52.16411865234375</v>
+      </c>
+      <c r="L14">
+        <v>13.94278808593754</v>
+      </c>
+      <c r="M14">
+        <v>7.224042968750041</v>
+      </c>
+      <c r="N14">
+        <v>4.935570233467875</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>41.15766805013021</v>
+      </c>
+      <c r="Q14">
+        <v>44.03423461914065</v>
+      </c>
+      <c r="R14">
+        <v>11.11985677083334</v>
+      </c>
+      <c r="S14">
+        <v>8.825413004557333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7.602137769774287</v>
+      </c>
+      <c r="C15">
+        <v>466</v>
+      </c>
+      <c r="D15">
+        <v>31.10611897087921</v>
+      </c>
+      <c r="E15">
+        <v>33.39244418819578</v>
+      </c>
+      <c r="F15">
+        <v>9.510296133147847</v>
+      </c>
+      <c r="G15">
+        <v>7.525529774678148</v>
+      </c>
+      <c r="H15">
+        <v>4.51968344720542</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>43.68986018254208</v>
+      </c>
+      <c r="K15">
+        <v>53.82003408578726</v>
+      </c>
+      <c r="L15">
+        <v>17.30206157977767</v>
+      </c>
+      <c r="M15">
+        <v>9.406558462289695</v>
+      </c>
+      <c r="N15">
+        <v>4.705851824955919</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>41.08103550502233</v>
+      </c>
+      <c r="Q15">
+        <v>44.29177246093752</v>
+      </c>
+      <c r="R15">
+        <v>9.259149169921898</v>
+      </c>
+      <c r="S15">
+        <v>6.728077915736606</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>